--- a/data/washington/closures/data/WA_DOC_rec_closure_area_key.xlsx
+++ b/data/washington/closures/data/WA_DOC_rec_closure_area_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/domoic_acid_mgmt/data/washington/closures/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBE2CC9-9665-4F4F-8553-F0A37951069E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE4E69E-001B-5446-9A8D-39F1E2A08037}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19380" yWindow="3380" windowWidth="34680" windowHeight="22460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11240" yWindow="860" windowWidth="34680" windowHeight="22460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="963">
   <si>
     <t>area_orig</t>
   </si>
@@ -1525,9 +1525,6 @@
     <t>Birch Point to Skagit County Line</t>
   </si>
   <si>
-    <t>Clark's Point to Larabee State Park (southern part)</t>
-  </si>
-  <si>
     <t>40.02, 35, 40.01</t>
   </si>
   <si>
@@ -1546,9 +1543,6 @@
     <t>31.03, 31.04</t>
   </si>
   <si>
-    <t>32, 40.01</t>
-  </si>
-  <si>
     <t>waterbody</t>
   </si>
   <si>
@@ -1567,9 +1561,6 @@
     <t>35, 32</t>
   </si>
   <si>
-    <t>35, 32, 40.01</t>
-  </si>
-  <si>
     <t>31.01, 45.02</t>
   </si>
   <si>
@@ -1969,15 +1960,6 @@
     <t>109, 34.01, 54.03</t>
   </si>
   <si>
-    <t>San Juan County, except East Sound</t>
-  </si>
-  <si>
-    <t>San Juan County, except East Sound plus</t>
-  </si>
-  <si>
-    <t>San Juan County, except a bunch….</t>
-  </si>
-  <si>
     <t>98, 102.01, 103.01</t>
   </si>
   <si>
@@ -2302,9 +2284,6 @@
     <t>63.01, 63.02, 63.03, 63.04, 63.05, 63.06, 74</t>
   </si>
   <si>
-    <t>Pierce County, except Colvos Passage</t>
-  </si>
-  <si>
     <t>South Narrows (92) to Thurston County Line (80.01)</t>
   </si>
   <si>
@@ -2657,6 +2636,285 @@
   </si>
   <si>
     <t>Kingston</t>
+  </si>
+  <si>
+    <t>E Bainbridge - South Beach to Point Monroe</t>
+  </si>
+  <si>
+    <t>E Kitsap County - Pierce County Line to Foulweather Bluff</t>
+  </si>
+  <si>
+    <t>E Bainbridge (86.01, 71.01, 71.02, 71.03) and Agate Passage (59)</t>
+  </si>
+  <si>
+    <t>86.01, 71.01, 71.02, 71.03, 59</t>
+  </si>
+  <si>
+    <t>Dyes Inlet (70.01)</t>
+  </si>
+  <si>
+    <t>Colvos Passage (65.01) and Yukon Harbor (61.01)</t>
+  </si>
+  <si>
+    <t>65.01, 61.01</t>
+  </si>
+  <si>
+    <t>Agate Passage (59)</t>
+  </si>
+  <si>
+    <t>Agate Passage (59), Liberty Bay (78.01)</t>
+  </si>
+  <si>
+    <t>59, 78.01</t>
+  </si>
+  <si>
+    <t>71.03, 71.02, 71.01</t>
+  </si>
+  <si>
+    <t>E Bainbridge - South Beach to Point Monroe, Yukon Harbor (61.01), Blake Island (61.02)</t>
+  </si>
+  <si>
+    <t>71.03, 71.02, 71.01, 61.01, 61.02</t>
+  </si>
+  <si>
+    <t>Yukon Harbor (61.01) and Blake Island (61.02)</t>
+  </si>
+  <si>
+    <t>61.01, 61.02</t>
+  </si>
+  <si>
+    <t>W Bainbridge - Point White to Point Bolin</t>
+  </si>
+  <si>
+    <t>W Bainbridge - Point White to Agate Pass Bridge</t>
+  </si>
+  <si>
+    <t>E Bainbridge - Restoration Point to Point Monroe</t>
+  </si>
+  <si>
+    <t>Pierce County Line to Point Jefferson</t>
+  </si>
+  <si>
+    <t>Point Monroe to Point Jefferson</t>
+  </si>
+  <si>
+    <t>Blake Island to Point Jefferson</t>
+  </si>
+  <si>
+    <t>61.02, 71.03, 71.02, 71.01, 86.01</t>
+  </si>
+  <si>
+    <t>Point Jefferson to Foulweather Bluff</t>
+  </si>
+  <si>
+    <t>77.02, 77.01, 110</t>
+  </si>
+  <si>
+    <t>Port Washington Narrows (70.02)</t>
+  </si>
+  <si>
+    <t>Colvos Passage (65.01)</t>
+  </si>
+  <si>
+    <t>Rich Passage (88), Yukon Harbor (61.01), Colvos Passage (65.01), Blake Island (61.02)</t>
+  </si>
+  <si>
+    <t>88, 61.01, 65.01, 61.02</t>
+  </si>
+  <si>
+    <t>Hood Canal - Bangor to Foulweather Bluff</t>
+  </si>
+  <si>
+    <t>South Beach to Point Jefferson, E Bainbridge Island, and Port Madison</t>
+  </si>
+  <si>
+    <t>71.03, 71.02, 71.01, 86.01</t>
+  </si>
+  <si>
+    <t>Pierce County Line to Restoration Point, excluding Blake Island</t>
+  </si>
+  <si>
+    <t>Pierce County Line to Restoration Point, including Blake Island, Rich Passage, and Colvos Passage</t>
+  </si>
+  <si>
+    <t>65.01, 61.01, 71.03, 88</t>
+  </si>
+  <si>
+    <t>65.01, 61.01, 71.03, 88, 61.02</t>
+  </si>
+  <si>
+    <t>South Beach to Point Jefferson, including Port Madison, Agate Passage, W Bainbridge, and Rich Passage</t>
+  </si>
+  <si>
+    <t>88, 71.03</t>
+  </si>
+  <si>
+    <t>S Bainbridge Island - Point White to Restoration Point</t>
+  </si>
+  <si>
+    <t>Pierce County Line to Point White, including Blake Island</t>
+  </si>
+  <si>
+    <t>65.01, 61.01, 61.02, 88</t>
+  </si>
+  <si>
+    <t>Point White to Point Jefferson, including Agate Passage, W Bainbridge, and Liberty Bay</t>
+  </si>
+  <si>
+    <t>95, 78.01, 59, 86.01, 71.01</t>
+  </si>
+  <si>
+    <t>E Kitsap County and W Bainbridge from Point White to Agate Pass Bridge</t>
+  </si>
+  <si>
+    <t>95, 59</t>
+  </si>
+  <si>
+    <t>71.02, 71.01</t>
+  </si>
+  <si>
+    <t>65.01, 61.01, 61.02, 88, 71.03, 71.02, 71.01, 86.01, 77.02, 77.01, 110</t>
+  </si>
+  <si>
+    <t>65.01, 61.01, 61.02, 88, 71.03, 71.02, 71.01, 86.01, 77.02, 77.01, 110, 95, 59</t>
+  </si>
+  <si>
+    <t>11.02, 110, 77.01, 77.02</t>
+  </si>
+  <si>
+    <t>3.01, 2.02, 11.02</t>
+  </si>
+  <si>
+    <t>11.02, 12</t>
+  </si>
+  <si>
+    <t>5.01, 3.03</t>
+  </si>
+  <si>
+    <t>sub-zone</t>
+  </si>
+  <si>
+    <t>3.03, 2.02</t>
+  </si>
+  <si>
+    <t>65.01, 61.01, 61.02, 88, 71.03, 71.02, 71.01, 86.01</t>
+  </si>
+  <si>
+    <t>65.01, 61.01, 61.02, 88, 71.03, 71.02, 71.01, 86.01, 77.02, 77.01, 110, 3.03</t>
+  </si>
+  <si>
+    <t>HC Bridge to Foulweather Bluff to Point No Point</t>
+  </si>
+  <si>
+    <t>11.02, 110</t>
+  </si>
+  <si>
+    <t>Bellingham Bay, including Larrabee State Park</t>
+  </si>
+  <si>
+    <t>32, 40.01, 40.02</t>
+  </si>
+  <si>
+    <t>35, 32, 40.01, 40.02</t>
+  </si>
+  <si>
+    <t>41, 45.01, 31.01, 31.02, 31.03, 31.04</t>
+  </si>
+  <si>
+    <t>35, 40.01</t>
+  </si>
+  <si>
+    <t>Point Roberts (40.01), Drayton Harbor (35), Portage Bay (31.01), Bellingham Bay south (31.02, 31.03, 31.04)</t>
+  </si>
+  <si>
+    <t>40.01, 35, 31.01, 31.02, 31.03, 31.04</t>
+  </si>
+  <si>
+    <t>Hale Passage (45.02), W Lummi Island (37), Lummi Bay (45.01), to Canadian Border</t>
+  </si>
+  <si>
+    <t>45.02, 37, 45.01, 41, 32, 35, 40.02, 40.01</t>
+  </si>
+  <si>
+    <t>Hale Passage (45.02), W Lummi Island (37), Lummi Bay (45.01), to Canadian Border, no Point Roberts</t>
+  </si>
+  <si>
+    <t>45.02, 37, 45.01, 41, 32, 35, 40.02</t>
+  </si>
+  <si>
+    <t>Hood Canal - HC Bridge to Foulweather Bluff (Kitsap/Jefferson Counties)</t>
+  </si>
+  <si>
+    <t>3.01, 2.02, 11.02, 2.01, 11.01, 13</t>
+  </si>
+  <si>
+    <t>108, 109, 34.01, 44, 47, 48.02, 49.04, 49.05, 51.01, 51.02, 54.03, 56</t>
+  </si>
+  <si>
+    <t>65.02, 72, 81.01, 81.02, 87, 91.01, 91.02, 91.03, 91.04</t>
+  </si>
+  <si>
+    <t>10, 5.02, 6, 64.01, 64.02, 64.05, 64.07, 68, 7, 75, 8, 82, 83, 84, 9, 90, 93.01, 94.03, 94.04</t>
+  </si>
+  <si>
+    <t>63.01, 63.02, 63.03, 63.04, 63.06, 64.03, 64.04, 64.06, 64.08, 65.03, 66, 69, 74, 79.01, 79.02, 80.01, 85, 92, 92.01</t>
+  </si>
+  <si>
+    <t>100.01, 100.02, 101.01, 101.02, 101.03, 101.04, 102.01, 102.02, 102.03, 103.01, 103.02, 104, 105, 106.01, 106.02, 96, 98, 99.01, 99.02, 99.03, 99.04</t>
+  </si>
+  <si>
+    <t>33, 34.02, 39, 39.01, 42, 43, 46.01, 46.02, 46.03, 50, 52, 53, 54.01, 55, 57</t>
+  </si>
+  <si>
+    <t>48.01, 49.01, 49.02, 49.03, 54.02</t>
+  </si>
+  <si>
+    <t>62, 68.01, 73.01, 73.02, 76, 80.02, 80.03, 93.02, 94.01, 94.02</t>
+  </si>
+  <si>
+    <t>31.01, 31.02, 31.03, 31.04, 32, 35, 37, 40.01, 40.02, 41, 45.01, 45.02</t>
+  </si>
+  <si>
+    <t>63.01, 63.02, 63.03, 63.04, 63.06, 64.03, 64.04, 64.06, 64.08, 69, 74, 79.02, 80.01, 85, 92, 92.01</t>
+  </si>
+  <si>
+    <t>Pierce County, except Colvos Passage (65.03)</t>
+  </si>
+  <si>
+    <t>63.01, 63.02, 63.03, 63.04, 63.06, 64.03, 64.04, 64.06, 64.08, 66, 69, 74, 79.01, 79.02, 80.01, 85, 92, 92.01</t>
+  </si>
+  <si>
+    <t>San Juan County, except East Sound (96)</t>
+  </si>
+  <si>
+    <t>100.01, 100.02, 101.01, 101.02, 101.03, 101.04, 102.01, 102.02, 102.03, 103.01, 103.02, 104, 105, 106.01, 106.02, 98, 99.01, 99.02, 99.03, 99.04</t>
+  </si>
+  <si>
+    <t>San Juan County, except East Sound (96), Sucia Island (105), S Lopez Island (103.02)</t>
+  </si>
+  <si>
+    <t>100.01, 100.02, 101.01, 101.02, 101.03, 101.04, 102.01, 102.02, 102.03, 103.01, 104, 106.01, 106.02, 98, 99.01, 99.02, 99.03, 99.04</t>
+  </si>
+  <si>
+    <t>San Juan County, S/W San Juan Island from Roche Harbor to Low Point (103.01, 98)</t>
+  </si>
+  <si>
+    <t>100.01, 100.02, 101.01, 101.02, 101.03, 101.04, 102.01, 102.02, 102.03, 103.02, 104, 105, 106.01, 106.02, 96, 99.01, 99.02, 99.03, 99.04</t>
+  </si>
+  <si>
+    <t>Whatcom County, except Drayton Harbor (35)</t>
+  </si>
+  <si>
+    <t>31.01, 31.02, 31.03, 31.04, 32, 37, 40.01, 40.02, 41, 45.01, 45.02</t>
+  </si>
+  <si>
+    <t>Whatcom County, except Bellingham Bay (31.02) and Portage Bay (31.01)</t>
+  </si>
+  <si>
+    <t>31.03, 31.04, 32, 35, 37, 40.01, 40.02, 41, 45.01, 45.02</t>
+  </si>
+  <si>
+    <t>71.03, 71.02, 71.01, 86.01, 59, 95, 88</t>
   </si>
 </sst>
 </file>
@@ -3518,17 +3776,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="B241" sqref="B241"/>
+    <sheetView tabSelected="1" topLeftCell="B243" workbookViewId="0">
+      <selection activeCell="D258" sqref="D258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.83203125" customWidth="1"/>
-    <col min="2" max="2" width="137.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.6640625" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="124.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -3551,13 +3808,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2"/>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>877</v>
+      </c>
+      <c r="C2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3574,12 +3842,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -3591,12 +3859,12 @@
         <v>28.01</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -3608,7 +3876,7 @@
         <v>28.01</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3625,7 +3893,7 @@
         <v>28.02</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3642,7 +3910,7 @@
         <v>28.02</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -3659,7 +3927,7 @@
         <v>28.02</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -3670,18 +3938,18 @@
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -3690,15 +3958,15 @@
         <v>488</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -3707,15 +3975,15 @@
         <v>488</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -3724,15 +3992,15 @@
         <v>488</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -3741,15 +4009,15 @@
         <v>488</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -3758,15 +4026,15 @@
         <v>488</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -3775,15 +4043,15 @@
         <v>488</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -3792,15 +4060,15 @@
         <v>488</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -3809,15 +4077,15 @@
         <v>488</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -3826,15 +4094,15 @@
         <v>488</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -3843,15 +4111,15 @@
         <v>488</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -3860,15 +4128,15 @@
         <v>488</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -3877,15 +4145,15 @@
         <v>488</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -3894,15 +4162,15 @@
         <v>488</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -3911,15 +4179,15 @@
         <v>488</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -3928,15 +4196,15 @@
         <v>488</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -3945,15 +4213,15 @@
         <v>488</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -3962,15 +4230,15 @@
         <v>488</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -3979,15 +4247,15 @@
         <v>488</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -3996,15 +4264,15 @@
         <v>488</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -4013,15 +4281,15 @@
         <v>488</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -4033,12 +4301,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -4050,12 +4318,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -4067,12 +4335,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -4084,12 +4352,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -4101,12 +4369,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -4118,12 +4386,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -4132,15 +4400,15 @@
         <v>488</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -4149,15 +4417,15 @@
         <v>488</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>10</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -4166,15 +4434,15 @@
         <v>488</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -4183,15 +4451,15 @@
         <v>488</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -4200,15 +4468,15 @@
         <v>488</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -4217,15 +4485,15 @@
         <v>488</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -4234,15 +4502,15 @@
         <v>488</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -4251,15 +4519,15 @@
         <v>488</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -4268,15 +4536,15 @@
         <v>488</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -4285,15 +4553,15 @@
         <v>488</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -4302,15 +4570,15 @@
         <v>488</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -4319,15 +4587,15 @@
         <v>488</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -4336,15 +4604,15 @@
         <v>488</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>54</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -4353,15 +4621,15 @@
         <v>488</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -4373,12 +4641,12 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
@@ -4387,15 +4655,15 @@
         <v>488</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
@@ -4407,12 +4675,12 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -4421,15 +4689,15 @@
         <v>488</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -4438,15 +4706,15 @@
         <v>488</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -4455,15 +4723,15 @@
         <v>488</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -4472,15 +4740,15 @@
         <v>488</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -4489,15 +4757,15 @@
         <v>488</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>17</v>
       </c>
       <c r="B58" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -4506,10 +4774,10 @@
         <v>488</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -4520,18 +4788,18 @@
         <v>65</v>
       </c>
       <c r="D59" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -4540,15 +4808,15 @@
         <v>488</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="C61" t="s">
         <v>67</v>
@@ -4557,10 +4825,10 @@
         <v>488</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -4577,7 +4845,7 @@
         <v>17.03</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -4594,7 +4862,7 @@
         <v>17.03</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -4611,7 +4879,7 @@
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -4625,15 +4893,15 @@
         <v>482</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C66" t="s">
         <v>67</v>
@@ -4642,15 +4910,15 @@
         <v>488</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="C67" t="s">
         <v>67</v>
@@ -4662,12 +4930,12 @@
         <v>17.02</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C68" t="s">
         <v>67</v>
@@ -4676,24 +4944,27 @@
         <v>488</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D69" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+      <c r="E69" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -4707,15 +4978,15 @@
         <v>488</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C71" t="s">
         <v>79</v>
@@ -4724,15 +4995,15 @@
         <v>488</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -4744,9 +5015,9 @@
         <v>54.03</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B73" t="s">
         <v>89</v>
@@ -4757,8 +5028,11 @@
       <c r="D73" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -4772,15 +5046,15 @@
         <v>488</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C75" t="s">
         <v>79</v>
@@ -4789,15 +5063,15 @@
         <v>488</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C76" t="s">
         <v>79</v>
@@ -4806,10 +5080,10 @@
         <v>488</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>85</v>
       </c>
@@ -4823,15 +5097,15 @@
         <v>488</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C78" t="s">
         <v>79</v>
@@ -4840,10 +5114,10 @@
         <v>488</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -4860,7 +5134,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>88</v>
       </c>
@@ -4874,29 +5148,32 @@
         <v>488</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="C81" t="s">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="D81" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E81" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C82" t="s">
         <v>79</v>
@@ -4905,15 +5182,15 @@
         <v>488</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C83" t="s">
         <v>79</v>
@@ -4922,15 +5199,15 @@
         <v>488</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C84" t="s">
         <v>79</v>
@@ -4939,15 +5216,15 @@
         <v>488</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C85" t="s">
         <v>79</v>
@@ -4956,10 +5233,10 @@
         <v>488</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -4976,7 +5253,7 @@
         <v>51.02</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -4993,7 +5270,7 @@
         <v>51.02</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -5007,15 +5284,15 @@
         <v>488</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C89" t="s">
         <v>79</v>
@@ -5024,15 +5301,15 @@
         <v>488</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>98</v>
       </c>
       <c r="B90" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C90" t="s">
         <v>79</v>
@@ -5041,15 +5318,15 @@
         <v>488</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>99</v>
       </c>
       <c r="B91" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C91" t="s">
         <v>79</v>
@@ -5058,15 +5335,15 @@
         <v>488</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>100</v>
       </c>
       <c r="B92" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C92" t="s">
         <v>79</v>
@@ -5075,15 +5352,15 @@
         <v>488</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C93" t="s">
         <v>79</v>
@@ -5092,10 +5369,10 @@
         <v>488</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>102</v>
       </c>
@@ -5106,18 +5383,18 @@
         <v>103</v>
       </c>
       <c r="D94" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="C95" t="s">
         <v>105</v>
@@ -5129,12 +5406,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="C96" t="s">
         <v>105</v>
@@ -5143,15 +5420,15 @@
         <v>488</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>139</v>
       </c>
       <c r="B97" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="C97" t="s">
         <v>105</v>
@@ -5160,15 +5437,15 @@
         <v>488</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>133</v>
       </c>
       <c r="B98" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -5177,15 +5454,15 @@
         <v>488</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>131</v>
       </c>
       <c r="B99" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="C99" t="s">
         <v>105</v>
@@ -5194,15 +5471,15 @@
         <v>488</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="C100" t="s">
         <v>105</v>
@@ -5211,15 +5488,15 @@
         <v>488</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>116</v>
       </c>
       <c r="B101" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="C101" t="s">
         <v>105</v>
@@ -5231,12 +5508,12 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>111</v>
       </c>
       <c r="B102" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C102" t="s">
         <v>105</v>
@@ -5245,10 +5522,10 @@
         <v>488</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>113</v>
       </c>
@@ -5265,12 +5542,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>114</v>
       </c>
       <c r="B104" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="C104" t="s">
         <v>105</v>
@@ -5279,15 +5556,15 @@
         <v>488</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>115</v>
       </c>
       <c r="B105" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C105" t="s">
         <v>105</v>
@@ -5296,15 +5573,15 @@
         <v>488</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="C106" t="s">
         <v>105</v>
@@ -5313,15 +5590,15 @@
         <v>488</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>118</v>
       </c>
       <c r="B107" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C107" t="s">
         <v>105</v>
@@ -5330,15 +5607,15 @@
         <v>488</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>117</v>
       </c>
       <c r="B108" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C108" t="s">
         <v>105</v>
@@ -5347,15 +5624,15 @@
         <v>488</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>119</v>
       </c>
       <c r="B109" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="C109" t="s">
         <v>105</v>
@@ -5367,12 +5644,12 @@
         <v>18.02</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>120</v>
       </c>
       <c r="B110" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="C110" t="s">
         <v>105</v>
@@ -5384,12 +5661,12 @@
         <v>18.02</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>121</v>
       </c>
       <c r="B111" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C111" t="s">
         <v>105</v>
@@ -5398,15 +5675,15 @@
         <v>488</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>122</v>
       </c>
       <c r="B112" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="C112" t="s">
         <v>105</v>
@@ -5415,15 +5692,15 @@
         <v>488</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>123</v>
       </c>
       <c r="B113" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="C113" t="s">
         <v>105</v>
@@ -5432,15 +5709,15 @@
         <v>488</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>125</v>
       </c>
       <c r="B114" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="C114" t="s">
         <v>105</v>
@@ -5449,15 +5726,15 @@
         <v>488</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>126</v>
       </c>
       <c r="B115" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="C115" t="s">
         <v>105</v>
@@ -5466,15 +5743,15 @@
         <v>488</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>128</v>
       </c>
       <c r="B116" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="C116" t="s">
         <v>105</v>
@@ -5483,15 +5760,15 @@
         <v>488</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>127</v>
       </c>
       <c r="B117" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="C117" t="s">
         <v>105</v>
@@ -5500,15 +5777,15 @@
         <v>488</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C118" t="s">
         <v>105</v>
@@ -5517,15 +5794,15 @@
         <v>488</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>158</v>
       </c>
       <c r="B119" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="C119" t="s">
         <v>105</v>
@@ -5537,12 +5814,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>159</v>
       </c>
       <c r="B120" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="C120" t="s">
         <v>105</v>
@@ -5554,7 +5831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>129</v>
       </c>
@@ -5571,7 +5848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>132</v>
       </c>
@@ -5588,12 +5865,12 @@
         <v>24.05</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>135</v>
       </c>
       <c r="B123" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="C123" t="s">
         <v>105</v>
@@ -5602,15 +5879,15 @@
         <v>488</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>134</v>
       </c>
       <c r="B124" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="C124" t="s">
         <v>105</v>
@@ -5619,10 +5896,10 @@
         <v>488</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>136</v>
       </c>
@@ -5639,7 +5916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>109</v>
       </c>
@@ -5656,7 +5933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>140</v>
       </c>
@@ -5673,12 +5950,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>143</v>
       </c>
       <c r="B128" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C128" t="s">
         <v>105</v>
@@ -5687,10 +5964,10 @@
         <v>9</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -5707,7 +5984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>141</v>
       </c>
@@ -5724,7 +6001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>142</v>
       </c>
@@ -5741,7 +6018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>145</v>
       </c>
@@ -5758,12 +6035,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>144</v>
       </c>
       <c r="B133" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="C133" t="s">
         <v>105</v>
@@ -5772,15 +6049,15 @@
         <v>488</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="C134" t="s">
         <v>105</v>
@@ -5789,15 +6066,15 @@
         <v>488</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>147</v>
       </c>
       <c r="B135" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C135" t="s">
         <v>105</v>
@@ -5806,15 +6083,15 @@
         <v>488</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>151</v>
       </c>
       <c r="B136" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="C136" t="s">
         <v>105</v>
@@ -5823,15 +6100,15 @@
         <v>488</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>152</v>
       </c>
       <c r="B137" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="C137" t="s">
         <v>105</v>
@@ -5840,15 +6117,15 @@
         <v>488</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>150</v>
       </c>
       <c r="B138" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C138" t="s">
         <v>105</v>
@@ -5857,15 +6134,15 @@
         <v>488</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>148</v>
       </c>
       <c r="B139" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="C139" t="s">
         <v>105</v>
@@ -5874,15 +6151,15 @@
         <v>488</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>149</v>
       </c>
       <c r="B140" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="C140" t="s">
         <v>105</v>
@@ -5891,15 +6168,15 @@
         <v>488</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>153</v>
       </c>
       <c r="B141" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="C141" t="s">
         <v>105</v>
@@ -5908,15 +6185,15 @@
         <v>488</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>146</v>
       </c>
       <c r="B142" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C142" t="s">
         <v>105</v>
@@ -5928,12 +6205,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>154</v>
       </c>
       <c r="B143" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="C143" t="s">
         <v>105</v>
@@ -5942,15 +6219,15 @@
         <v>488</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>155</v>
       </c>
       <c r="B144" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="C144" t="s">
         <v>105</v>
@@ -5959,15 +6236,15 @@
         <v>488</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>157</v>
       </c>
       <c r="B145" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="C145" t="s">
         <v>105</v>
@@ -5976,10 +6253,10 @@
         <v>488</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>156</v>
       </c>
@@ -5996,12 +6273,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="B147" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C147" t="s">
         <v>105</v>
@@ -6010,15 +6287,15 @@
         <v>488</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>160</v>
       </c>
       <c r="B148" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="C148" t="s">
         <v>105</v>
@@ -6027,15 +6304,15 @@
         <v>488</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>108</v>
       </c>
       <c r="B149" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="C149" t="s">
         <v>105</v>
@@ -6044,15 +6321,15 @@
         <v>488</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>110</v>
       </c>
       <c r="B150" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="C150" t="s">
         <v>105</v>
@@ -6061,15 +6338,15 @@
         <v>488</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>138</v>
       </c>
       <c r="B151" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C151" t="s">
         <v>105</v>
@@ -6078,33 +6355,49 @@
         <v>488</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>161</v>
+        <v>193</v>
+      </c>
+      <c r="B152" t="s">
+        <v>877</v>
       </c>
       <c r="C152" t="s">
-        <v>162</v>
-      </c>
-      <c r="D152"/>
-    </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="D152" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>163</v>
+        <v>190</v>
+      </c>
+      <c r="B153" t="s">
+        <v>878</v>
       </c>
       <c r="C153" t="s">
-        <v>162</v>
-      </c>
-      <c r="D153"/>
-    </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="D153" t="s">
+        <v>488</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>164</v>
       </c>
       <c r="B154" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C154" t="s">
         <v>165</v>
@@ -6113,15 +6406,15 @@
         <v>488</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>166</v>
       </c>
       <c r="B155" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C155" t="s">
         <v>165</v>
@@ -6130,12 +6423,12 @@
         <v>488</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B156" t="s">
         <v>171</v>
@@ -6146,8 +6439,11 @@
       <c r="D156" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E156" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>168</v>
       </c>
@@ -6161,15 +6457,15 @@
         <v>488</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>169</v>
       </c>
       <c r="B158" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -6181,12 +6477,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>170</v>
       </c>
       <c r="B159" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C159" t="s">
         <v>165</v>
@@ -6198,21 +6494,24 @@
         <v>81.02</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
       <c r="B160" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
       <c r="C160" t="s">
-        <v>165</v>
+        <v>291</v>
       </c>
       <c r="D160" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E160" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>172</v>
       </c>
@@ -6229,12 +6528,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>173</v>
       </c>
       <c r="B162" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C162" t="s">
         <v>165</v>
@@ -6243,15 +6542,15 @@
         <v>488</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>174</v>
       </c>
       <c r="B163" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C163" t="s">
         <v>165</v>
@@ -6260,15 +6559,15 @@
         <v>488</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>175</v>
       </c>
       <c r="B164" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C164" t="s">
         <v>165</v>
@@ -6277,15 +6576,15 @@
         <v>488</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>176</v>
       </c>
       <c r="B165" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C165" t="s">
         <v>165</v>
@@ -6294,15 +6593,15 @@
         <v>488</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>177</v>
       </c>
       <c r="B166" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C166" t="s">
         <v>165</v>
@@ -6311,15 +6610,15 @@
         <v>488</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>178</v>
       </c>
       <c r="B167" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C167" t="s">
         <v>165</v>
@@ -6328,15 +6627,15 @@
         <v>488</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>179</v>
       </c>
       <c r="B168" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C168" t="s">
         <v>165</v>
@@ -6345,15 +6644,15 @@
         <v>488</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>180</v>
       </c>
       <c r="B169" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C169" t="s">
         <v>165</v>
@@ -6362,15 +6661,15 @@
         <v>488</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>181</v>
       </c>
       <c r="B170" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C170" t="s">
         <v>165</v>
@@ -6379,15 +6678,15 @@
         <v>488</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>182</v>
       </c>
       <c r="B171" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C171" t="s">
         <v>165</v>
@@ -6396,15 +6695,15 @@
         <v>488</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>183</v>
       </c>
       <c r="B172" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C172" t="s">
         <v>165</v>
@@ -6413,10 +6712,10 @@
         <v>488</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>184</v>
       </c>
@@ -6430,10 +6729,10 @@
         <v>488</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>185</v>
       </c>
@@ -6447,10 +6746,10 @@
         <v>488</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>186</v>
       </c>
@@ -6464,10 +6763,10 @@
         <v>488</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>187</v>
       </c>
@@ -6481,32 +6780,32 @@
         <v>488</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="B177" t="s">
-        <v>188</v>
+        <v>818</v>
       </c>
       <c r="C177" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D177" t="s">
         <v>488</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>687</v>
+        <v>806</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B178" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="C178" t="s">
         <v>191</v>
@@ -6515,15 +6814,15 @@
         <v>488</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B179" t="s">
-        <v>826</v>
+        <v>890</v>
       </c>
       <c r="C179" t="s">
         <v>191</v>
@@ -6532,49 +6831,49 @@
         <v>488</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>827</v>
+        <v>891</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B180" t="s">
-        <v>836</v>
+        <v>188</v>
       </c>
       <c r="C180" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D180" t="s">
         <v>488</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>837</v>
+        <v>681</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="B181" t="s">
-        <v>838</v>
+        <v>895</v>
       </c>
       <c r="C181" t="s">
         <v>191</v>
       </c>
       <c r="D181" t="s">
-        <v>488</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>839</v>
+        <v>9</v>
+      </c>
+      <c r="E181" s="2">
+        <v>65.010000000000005</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="B182" t="s">
-        <v>840</v>
+        <v>875</v>
       </c>
       <c r="C182" t="s">
         <v>191</v>
@@ -6583,15 +6882,15 @@
         <v>488</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>841</v>
+        <v>876</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="B183" t="s">
-        <v>848</v>
+        <v>829</v>
       </c>
       <c r="C183" t="s">
         <v>191</v>
@@ -6599,16 +6898,16 @@
       <c r="D183" t="s">
         <v>488</v>
       </c>
-      <c r="E183" t="s">
-        <v>849</v>
+      <c r="E183" s="2" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B184" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -6617,15 +6916,15 @@
         <v>488</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="B185" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C185" t="s">
         <v>191</v>
@@ -6634,15 +6933,15 @@
         <v>488</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="B186" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C186" t="s">
         <v>191</v>
@@ -6650,16 +6949,16 @@
       <c r="D186" t="s">
         <v>488</v>
       </c>
-      <c r="E186" s="2" t="s">
-        <v>845</v>
+      <c r="E186" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B187" t="s">
-        <v>846</v>
+        <v>825</v>
       </c>
       <c r="C187" t="s">
         <v>191</v>
@@ -6668,15 +6967,15 @@
         <v>488</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>847</v>
+        <v>826</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B188" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="C188" t="s">
         <v>191</v>
@@ -6685,87 +6984,117 @@
         <v>488</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="B189" t="s">
-        <v>860</v>
+        <v>837</v>
       </c>
       <c r="C189" t="s">
         <v>191</v>
       </c>
-      <c r="D189"/>
+      <c r="D189" t="s">
+        <v>488</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>838</v>
+      </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="B190" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
       <c r="C190" t="s">
         <v>191</v>
       </c>
-      <c r="D190"/>
+      <c r="D190" t="s">
+        <v>488</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>284</v>
+        <v>203</v>
       </c>
       <c r="B191" t="s">
-        <v>851</v>
+        <v>827</v>
       </c>
       <c r="C191" t="s">
         <v>191</v>
       </c>
-      <c r="D191"/>
+      <c r="D191" t="s">
+        <v>488</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>828</v>
+      </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="B192" t="s">
-        <v>856</v>
+        <v>874</v>
       </c>
       <c r="C192" t="s">
         <v>191</v>
       </c>
-      <c r="D192"/>
+      <c r="D192" t="s">
+        <v>9</v>
+      </c>
+      <c r="E192" s="2">
+        <v>70.010000000000005</v>
+      </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>221</v>
+        <v>279</v>
       </c>
       <c r="B193" t="s">
-        <v>856</v>
+        <v>887</v>
       </c>
       <c r="C193" t="s">
         <v>191</v>
       </c>
-      <c r="D193"/>
+      <c r="D193" t="s">
+        <v>488</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>914</v>
+      </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="B194" t="s">
-        <v>856</v>
+        <v>887</v>
       </c>
       <c r="C194" t="s">
         <v>191</v>
       </c>
-      <c r="D194"/>
+      <c r="D194" t="s">
+        <v>488</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>914</v>
+      </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="B195" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
       <c r="C195" t="s">
         <v>191</v>
@@ -6774,15 +7103,15 @@
         <v>488</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>831</v>
+        <v>880</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="B196" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="C196" t="s">
         <v>191</v>
@@ -6791,177 +7120,202 @@
         <v>488</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>828</v>
+        <v>880</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B197" t="s">
-        <v>850</v>
+        <v>870</v>
       </c>
       <c r="C197" t="s">
         <v>191</v>
       </c>
-      <c r="D197"/>
+      <c r="D197" t="s">
+        <v>488</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="B198" t="s">
-        <v>855</v>
+        <v>870</v>
       </c>
       <c r="C198" t="s">
         <v>191</v>
       </c>
-      <c r="D198"/>
+      <c r="D198" t="s">
+        <v>488</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>882</v>
+      </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="B199" t="s">
-        <v>824</v>
+        <v>881</v>
       </c>
       <c r="C199" t="s">
         <v>191</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
-      </c>
-      <c r="E199" s="2">
-        <v>3.03</v>
+        <v>488</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="B200" t="s">
-        <v>852</v>
+        <v>872</v>
       </c>
       <c r="C200" t="s">
         <v>191</v>
       </c>
-      <c r="D200"/>
+      <c r="D200" t="s">
+        <v>488</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="B201" t="s">
-        <v>854</v>
+        <v>872</v>
       </c>
       <c r="C201" t="s">
         <v>191</v>
       </c>
-      <c r="D201"/>
+      <c r="D201" t="s">
+        <v>488</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="B202" t="s">
-        <v>853</v>
+        <v>871</v>
       </c>
       <c r="C202" t="s">
         <v>191</v>
       </c>
-      <c r="D202"/>
+      <c r="D202" t="s">
+        <v>488</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="B203" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="C203" t="s">
         <v>191</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
-      </c>
-      <c r="E203" s="2">
-        <v>77.02</v>
+        <v>488</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B204" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="C204" t="s">
         <v>191</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
-      </c>
-      <c r="E204" s="2">
-        <v>77.02</v>
+        <v>488</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="B205" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="C205" t="s">
         <v>191</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
-      </c>
-      <c r="E205" s="2">
-        <v>77.02</v>
+        <v>488</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="B206" t="s">
-        <v>863</v>
+        <v>912</v>
       </c>
       <c r="C206" t="s">
         <v>191</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
-      </c>
-      <c r="E206" s="2">
-        <v>78.010000000000005</v>
+        <v>488</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B207" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="C207" t="s">
         <v>191</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
-      </c>
-      <c r="E207" s="2">
-        <v>78.010000000000005</v>
+        <v>488</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>237</v>
+        <v>5</v>
       </c>
       <c r="B208" t="s">
-        <v>865</v>
+        <v>925</v>
       </c>
       <c r="C208" t="s">
         <v>191</v>
@@ -6970,146 +7324,151 @@
         <v>488</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>864</v>
+        <v>926</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>241</v>
+        <v>163</v>
       </c>
       <c r="B209" t="s">
-        <v>861</v>
+        <v>938</v>
       </c>
       <c r="C209" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="D209" t="s">
         <v>488</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>862</v>
+        <v>939</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B210" t="s">
-        <v>859</v>
+        <v>898</v>
       </c>
       <c r="C210" t="s">
         <v>191</v>
       </c>
-      <c r="D210"/>
+      <c r="D210" t="s">
+        <v>488</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>918</v>
+      </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>246</v>
+        <v>161</v>
       </c>
       <c r="B211" t="s">
-        <v>842</v>
+        <v>938</v>
       </c>
       <c r="C211" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="D211" t="s">
         <v>488</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>843</v>
+        <v>939</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B212" t="s">
-        <v>818</v>
+        <v>844</v>
       </c>
       <c r="C212" t="s">
         <v>191</v>
       </c>
       <c r="D212" t="s">
-        <v>488</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>821</v>
+        <v>9</v>
+      </c>
+      <c r="E212" s="2">
+        <v>11.02</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>216</v>
+        <v>284</v>
       </c>
       <c r="B213" t="s">
-        <v>818</v>
+        <v>844</v>
       </c>
       <c r="C213" t="s">
         <v>191</v>
       </c>
       <c r="D213" t="s">
-        <v>488</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>821</v>
+        <v>9</v>
+      </c>
+      <c r="E213" s="2">
+        <v>11.02</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>283</v>
+        <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>829</v>
+        <v>849</v>
       </c>
       <c r="C214" t="s">
         <v>191</v>
       </c>
       <c r="D214" t="s">
-        <v>488</v>
+        <v>9</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>830</v>
+        <v>919</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>810</v>
+        <v>849</v>
       </c>
       <c r="C215" t="s">
         <v>191</v>
       </c>
       <c r="D215" t="s">
-        <v>488</v>
+        <v>9</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>813</v>
+        <v>919</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B216" t="s">
-        <v>810</v>
+        <v>849</v>
       </c>
       <c r="C216" t="s">
         <v>191</v>
       </c>
       <c r="D216" t="s">
-        <v>488</v>
+        <v>9</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>813</v>
+        <v>919</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="B217" t="s">
-        <v>810</v>
+        <v>851</v>
       </c>
       <c r="C217" t="s">
         <v>191</v>
@@ -7118,15 +7477,15 @@
         <v>488</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>813</v>
+        <v>824</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B218" t="s">
-        <v>810</v>
+        <v>850</v>
       </c>
       <c r="C218" t="s">
         <v>191</v>
@@ -7135,15 +7494,15 @@
         <v>488</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B219" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="C219" t="s">
         <v>191</v>
@@ -7152,49 +7511,49 @@
         <v>488</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>823</v>
+        <v>920</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="B220" t="s">
-        <v>260</v>
+        <v>848</v>
       </c>
       <c r="C220" t="s">
         <v>191</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
-      </c>
-      <c r="E220" s="2">
-        <v>12</v>
+        <v>488</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="B221" t="s">
-        <v>261</v>
+        <v>817</v>
       </c>
       <c r="C221" t="s">
         <v>191</v>
       </c>
       <c r="D221" t="s">
-        <v>488</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>874</v>
+        <v>921</v>
+      </c>
+      <c r="E221" s="2">
+        <v>3.03</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="B222" t="s">
-        <v>263</v>
+        <v>845</v>
       </c>
       <c r="C222" t="s">
         <v>191</v>
@@ -7203,32 +7562,32 @@
         <v>488</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>875</v>
+        <v>922</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="B223" t="s">
-        <v>264</v>
+        <v>847</v>
       </c>
       <c r="C223" t="s">
         <v>191</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
+        <v>921</v>
       </c>
       <c r="E223" s="2">
-        <v>86.01</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="B224" t="s">
-        <v>264</v>
+        <v>846</v>
       </c>
       <c r="C224" t="s">
         <v>191</v>
@@ -7237,15 +7596,15 @@
         <v>9</v>
       </c>
       <c r="E224" s="2">
-        <v>86.01</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="B225" t="s">
-        <v>264</v>
+        <v>869</v>
       </c>
       <c r="C225" t="s">
         <v>191</v>
@@ -7254,117 +7613,117 @@
         <v>9</v>
       </c>
       <c r="E225" s="2">
-        <v>86.01</v>
+        <v>77.02</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="B226" t="s">
-        <v>814</v>
+        <v>869</v>
       </c>
       <c r="C226" t="s">
         <v>191</v>
       </c>
       <c r="D226" t="s">
-        <v>488</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>815</v>
+        <v>9</v>
+      </c>
+      <c r="E226" s="2">
+        <v>77.02</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="B227" t="s">
-        <v>814</v>
+        <v>869</v>
       </c>
       <c r="C227" t="s">
         <v>191</v>
       </c>
       <c r="D227" t="s">
-        <v>488</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>815</v>
+        <v>9</v>
+      </c>
+      <c r="E227" s="2">
+        <v>77.02</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>268</v>
+        <v>196</v>
       </c>
       <c r="B228" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C228" t="s">
         <v>191</v>
       </c>
       <c r="D228" t="s">
-        <v>488</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>873</v>
+        <v>9</v>
+      </c>
+      <c r="E228" s="2">
+        <v>77.02</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="B229" t="s">
-        <v>811</v>
+        <v>856</v>
       </c>
       <c r="C229" t="s">
         <v>191</v>
       </c>
       <c r="D229" t="s">
-        <v>488</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>816</v>
+        <v>9</v>
+      </c>
+      <c r="E229" s="2">
+        <v>78.010000000000005</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="B230" t="s">
-        <v>811</v>
+        <v>856</v>
       </c>
       <c r="C230" t="s">
         <v>191</v>
       </c>
       <c r="D230" t="s">
-        <v>488</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>816</v>
+        <v>9</v>
+      </c>
+      <c r="E230" s="2">
+        <v>78.010000000000005</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="B231" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="C231" t="s">
         <v>191</v>
       </c>
       <c r="D231" t="s">
-        <v>9</v>
-      </c>
-      <c r="E231" s="2">
-        <v>88</v>
+        <v>488</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="B232" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="C232" t="s">
         <v>191</v>
@@ -7373,32 +7732,32 @@
         <v>488</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>276</v>
+        <v>214</v>
       </c>
       <c r="B233" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="C233" t="s">
         <v>191</v>
       </c>
       <c r="D233" t="s">
-        <v>9</v>
-      </c>
-      <c r="E233" s="2">
-        <v>89.01</v>
+        <v>488</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="B234" t="s">
-        <v>867</v>
+        <v>888</v>
       </c>
       <c r="C234" t="s">
         <v>191</v>
@@ -7407,15 +7766,15 @@
         <v>488</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>868</v>
+        <v>923</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B235" t="s">
-        <v>812</v>
+        <v>835</v>
       </c>
       <c r="C235" t="s">
         <v>191</v>
@@ -7424,15 +7783,15 @@
         <v>488</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>817</v>
+        <v>836</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B236" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="C236" t="s">
         <v>191</v>
@@ -7441,404 +7800,729 @@
         <v>488</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>190</v>
+        <v>216</v>
+      </c>
+      <c r="B237" t="s">
+        <v>811</v>
       </c>
       <c r="C237" t="s">
         <v>191</v>
       </c>
-      <c r="D237"/>
+      <c r="D237" t="s">
+        <v>488</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>814</v>
+      </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>192</v>
+        <v>283</v>
+      </c>
+      <c r="B238" t="s">
+        <v>822</v>
       </c>
       <c r="C238" t="s">
         <v>191</v>
       </c>
-      <c r="D238"/>
+      <c r="D238" t="s">
+        <v>488</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>193</v>
+        <v>259</v>
+      </c>
+      <c r="B239" t="s">
+        <v>908</v>
       </c>
       <c r="C239" t="s">
         <v>191</v>
       </c>
-      <c r="D239"/>
+      <c r="D239" t="s">
+        <v>488</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>909</v>
+      </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>194</v>
+        <v>271</v>
+      </c>
+      <c r="B240" t="s">
+        <v>901</v>
       </c>
       <c r="C240" t="s">
         <v>191</v>
       </c>
-      <c r="D240"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D240" t="s">
+        <v>488</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>195</v>
+        <v>273</v>
+      </c>
+      <c r="B241" t="s">
+        <v>902</v>
       </c>
       <c r="C241" t="s">
         <v>191</v>
       </c>
-      <c r="D241"/>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D241" t="s">
+        <v>488</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>196</v>
+        <v>222</v>
+      </c>
+      <c r="B242" t="s">
+        <v>892</v>
       </c>
       <c r="C242" t="s">
         <v>191</v>
       </c>
-      <c r="D242"/>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D242" t="s">
+        <v>488</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>197</v>
+        <v>251</v>
+      </c>
+      <c r="B243" t="s">
+        <v>803</v>
       </c>
       <c r="C243" t="s">
         <v>191</v>
       </c>
-      <c r="D243"/>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D243" t="s">
+        <v>488</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>198</v>
+        <v>252</v>
+      </c>
+      <c r="B244" t="s">
+        <v>803</v>
       </c>
       <c r="C244" t="s">
         <v>191</v>
       </c>
-      <c r="D244"/>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D244" t="s">
+        <v>488</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>206</v>
+        <v>253</v>
+      </c>
+      <c r="B245" t="s">
+        <v>803</v>
       </c>
       <c r="C245" t="s">
         <v>191</v>
       </c>
-      <c r="D245"/>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D245" t="s">
+        <v>488</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>207</v>
+        <v>254</v>
+      </c>
+      <c r="B246" t="s">
+        <v>803</v>
       </c>
       <c r="C246" t="s">
         <v>191</v>
       </c>
-      <c r="D246"/>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D246" t="s">
+        <v>488</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>208</v>
+        <v>217</v>
+      </c>
+      <c r="B247" t="s">
+        <v>815</v>
       </c>
       <c r="C247" t="s">
         <v>191</v>
       </c>
-      <c r="D247"/>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D247" t="s">
+        <v>488</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>209</v>
+        <v>243</v>
+      </c>
+      <c r="B248" t="s">
+        <v>889</v>
       </c>
       <c r="C248" t="s">
         <v>191</v>
       </c>
-      <c r="D248"/>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D248" t="s">
+        <v>9</v>
+      </c>
+      <c r="E248" s="2">
+        <v>86.01</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>210</v>
+        <v>266</v>
+      </c>
+      <c r="B249" t="s">
+        <v>910</v>
       </c>
       <c r="C249" t="s">
         <v>191</v>
       </c>
-      <c r="D249"/>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D249" t="s">
+        <v>488</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>211</v>
+        <v>260</v>
+      </c>
+      <c r="B250" t="s">
+        <v>260</v>
       </c>
       <c r="C250" t="s">
         <v>191</v>
       </c>
-      <c r="D250"/>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D250" t="s">
+        <v>9</v>
+      </c>
+      <c r="E250" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>213</v>
+        <v>261</v>
+      </c>
+      <c r="B251" t="s">
+        <v>261</v>
       </c>
       <c r="C251" t="s">
         <v>191</v>
       </c>
-      <c r="D251"/>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D251" t="s">
+        <v>488</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>215</v>
+        <v>263</v>
+      </c>
+      <c r="B252" t="s">
+        <v>263</v>
       </c>
       <c r="C252" t="s">
         <v>191</v>
       </c>
-      <c r="D252"/>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D252" t="s">
+        <v>488</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>219</v>
+        <v>264</v>
+      </c>
+      <c r="B253" t="s">
+        <v>264</v>
       </c>
       <c r="C253" t="s">
         <v>191</v>
       </c>
-      <c r="D253"/>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D253" t="s">
+        <v>9</v>
+      </c>
+      <c r="E253" s="2">
+        <v>86.01</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>222</v>
+        <v>265</v>
+      </c>
+      <c r="B254" t="s">
+        <v>264</v>
       </c>
       <c r="C254" t="s">
         <v>191</v>
       </c>
-      <c r="D254"/>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D254" t="s">
+        <v>9</v>
+      </c>
+      <c r="E254" s="2">
+        <v>86.01</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>235</v>
+        <v>267</v>
+      </c>
+      <c r="B255" t="s">
+        <v>264</v>
       </c>
       <c r="C255" t="s">
         <v>191</v>
       </c>
-      <c r="D255"/>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D255" t="s">
+        <v>9</v>
+      </c>
+      <c r="E255" s="2">
+        <v>86.01</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>242</v>
+        <v>250</v>
+      </c>
+      <c r="B256" t="s">
+        <v>807</v>
       </c>
       <c r="C256" t="s">
         <v>191</v>
       </c>
-      <c r="D256"/>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D256" t="s">
+        <v>488</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>243</v>
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>807</v>
       </c>
       <c r="C257" t="s">
         <v>191</v>
       </c>
-      <c r="D257"/>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D257" t="s">
+        <v>488</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>244</v>
+        <v>268</v>
+      </c>
+      <c r="B258" t="s">
+        <v>865</v>
       </c>
       <c r="C258" t="s">
         <v>191</v>
       </c>
-      <c r="D258"/>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D258" t="s">
+        <v>488</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>245</v>
+        <v>269</v>
+      </c>
+      <c r="B259" t="s">
+        <v>894</v>
       </c>
       <c r="C259" t="s">
         <v>191</v>
       </c>
-      <c r="D259"/>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D259" t="s">
+        <v>9</v>
+      </c>
+      <c r="E259" s="2">
+        <v>70.02</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>247</v>
+        <v>270</v>
+      </c>
+      <c r="B260" t="s">
+        <v>894</v>
       </c>
       <c r="C260" t="s">
         <v>191</v>
       </c>
-      <c r="D260"/>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D260" t="s">
+        <v>9</v>
+      </c>
+      <c r="E260" s="2">
+        <v>70.02</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>259</v>
+        <v>256</v>
+      </c>
+      <c r="B261" t="s">
+        <v>804</v>
       </c>
       <c r="C261" t="s">
         <v>191</v>
       </c>
-      <c r="D261"/>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D261" t="s">
+        <v>488</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>266</v>
+        <v>257</v>
+      </c>
+      <c r="B262" t="s">
+        <v>804</v>
       </c>
       <c r="C262" t="s">
         <v>191</v>
       </c>
-      <c r="D262"/>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D262" t="s">
+        <v>488</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>269</v>
+        <v>272</v>
+      </c>
+      <c r="B263" t="s">
+        <v>862</v>
       </c>
       <c r="C263" t="s">
         <v>191</v>
       </c>
-      <c r="D263"/>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D263" t="s">
+        <v>9</v>
+      </c>
+      <c r="E263" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>270</v>
+        <v>274</v>
+      </c>
+      <c r="B264" t="s">
+        <v>863</v>
       </c>
       <c r="C264" t="s">
         <v>191</v>
       </c>
-      <c r="D264"/>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D264" t="s">
+        <v>488</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>271</v>
+        <v>275</v>
+      </c>
+      <c r="B265" t="s">
+        <v>896</v>
       </c>
       <c r="C265" t="s">
         <v>191</v>
       </c>
-      <c r="D265"/>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D265" t="s">
+        <v>488</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>273</v>
+        <v>285</v>
+      </c>
+      <c r="B266" t="s">
+        <v>907</v>
       </c>
       <c r="C266" t="s">
         <v>191</v>
       </c>
-      <c r="D266"/>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D266" t="s">
+        <v>488</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>275</v>
+        <v>276</v>
+      </c>
+      <c r="B267" t="s">
+        <v>859</v>
       </c>
       <c r="C267" t="s">
         <v>191</v>
       </c>
-      <c r="D267"/>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D267" t="s">
+        <v>9</v>
+      </c>
+      <c r="E267" s="2">
+        <v>89.01</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>279</v>
+        <v>277</v>
+      </c>
+      <c r="B268" t="s">
+        <v>860</v>
       </c>
       <c r="C268" t="s">
         <v>191</v>
       </c>
-      <c r="D268"/>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D268" t="s">
+        <v>488</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>280</v>
+        <v>244</v>
+      </c>
+      <c r="B269" t="s">
+        <v>899</v>
       </c>
       <c r="C269" t="s">
         <v>191</v>
       </c>
-      <c r="D269"/>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D269" t="s">
+        <v>488</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>281</v>
+        <v>215</v>
+      </c>
+      <c r="B270" t="s">
+        <v>905</v>
       </c>
       <c r="C270" t="s">
         <v>191</v>
       </c>
-      <c r="D270"/>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D270" t="s">
+        <v>488</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>282</v>
+        <v>258</v>
+      </c>
+      <c r="B271" t="s">
+        <v>805</v>
       </c>
       <c r="C271" t="s">
         <v>191</v>
       </c>
-      <c r="D271"/>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D271" t="s">
+        <v>488</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>285</v>
+        <v>218</v>
+      </c>
+      <c r="B272" t="s">
+        <v>812</v>
       </c>
       <c r="C272" t="s">
         <v>191</v>
       </c>
-      <c r="D272"/>
+      <c r="D272" t="s">
+        <v>488</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>813</v>
+      </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>286</v>
       </c>
+      <c r="B273" t="s">
+        <v>886</v>
+      </c>
       <c r="C273" t="s">
         <v>191</v>
       </c>
-      <c r="D273"/>
+      <c r="D273" t="s">
+        <v>488</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>287</v>
+        <v>288</v>
+      </c>
+      <c r="B274" t="s">
+        <v>886</v>
       </c>
       <c r="C274" t="s">
         <v>191</v>
       </c>
-      <c r="D274"/>
+      <c r="D274" t="s">
+        <v>488</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>288</v>
+        <v>287</v>
+      </c>
+      <c r="B275" t="s">
+        <v>885</v>
       </c>
       <c r="C275" t="s">
         <v>191</v>
       </c>
-      <c r="D275"/>
+      <c r="D275" t="s">
+        <v>488</v>
+      </c>
+      <c r="E275" s="2">
+        <v>95</v>
+      </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>289</v>
       </c>
+      <c r="B276" t="s">
+        <v>883</v>
+      </c>
       <c r="C276" t="s">
         <v>191</v>
       </c>
-      <c r="D276"/>
-    </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D276" t="s">
+        <v>488</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>290</v>
       </c>
       <c r="B277" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C277" t="s">
         <v>291</v>
       </c>
-      <c r="D277"/>
+      <c r="D277" t="s">
+        <v>488</v>
+      </c>
       <c r="E277" s="2" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="B278" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="C278" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="D278" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E278" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>293</v>
       </c>
       <c r="B279" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C279" t="s">
         <v>291</v>
@@ -7850,24 +8534,24 @@
         <v>64.010000000000005</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>294</v>
       </c>
       <c r="B280" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C280" t="s">
         <v>291</v>
       </c>
       <c r="D280" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>295</v>
       </c>
@@ -7884,7 +8568,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>296</v>
       </c>
@@ -7901,12 +8585,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>309</v>
       </c>
       <c r="B283" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="C283" t="s">
         <v>308</v>
@@ -7915,10 +8599,10 @@
         <v>488</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>299</v>
       </c>
@@ -7932,10 +8616,10 @@
         <v>488</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>301</v>
       </c>
@@ -7949,10 +8633,10 @@
         <v>488</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>303</v>
       </c>
@@ -7969,12 +8653,12 @@
         <v>19.02</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>304</v>
       </c>
       <c r="B287" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C287" t="s">
         <v>302</v>
@@ -7983,10 +8667,10 @@
         <v>488</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>305</v>
       </c>
@@ -7997,18 +8681,18 @@
         <v>302</v>
       </c>
       <c r="D288" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>306</v>
       </c>
       <c r="B289" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C289" t="s">
         <v>302</v>
@@ -8017,15 +8701,15 @@
         <v>488</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>310</v>
       </c>
       <c r="B290" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="C290" t="s">
         <v>308</v>
@@ -8034,15 +8718,15 @@
         <v>488</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>311</v>
       </c>
       <c r="B291" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="C291" t="s">
         <v>308</v>
@@ -8051,15 +8735,15 @@
         <v>488</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>345</v>
       </c>
       <c r="B292" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="C292" t="s">
         <v>308</v>
@@ -8068,15 +8752,15 @@
         <v>488</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>313</v>
       </c>
       <c r="B293" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="C293" t="s">
         <v>308</v>
@@ -8085,15 +8769,15 @@
         <v>488</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>312</v>
       </c>
       <c r="B294" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="C294" t="s">
         <v>308</v>
@@ -8102,15 +8786,15 @@
         <v>488</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>339</v>
       </c>
       <c r="B295" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="C295" t="s">
         <v>308</v>
@@ -8119,10 +8803,10 @@
         <v>488</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>297</v>
       </c>
@@ -8136,15 +8820,15 @@
         <v>488</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>314</v>
       </c>
       <c r="B297" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="C297" t="s">
         <v>308</v>
@@ -8153,15 +8837,15 @@
         <v>488</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>335</v>
       </c>
       <c r="B298" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="C298" t="s">
         <v>308</v>
@@ -8170,15 +8854,15 @@
         <v>488</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>326</v>
       </c>
       <c r="B299" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="C299" t="s">
         <v>308</v>
@@ -8187,15 +8871,15 @@
         <v>488</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>328</v>
       </c>
       <c r="B300" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="C300" t="s">
         <v>308</v>
@@ -8204,15 +8888,15 @@
         <v>488</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>334</v>
       </c>
       <c r="B301" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="C301" t="s">
         <v>308</v>
@@ -8221,15 +8905,15 @@
         <v>488</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>329</v>
       </c>
       <c r="B302" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="C302" t="s">
         <v>308</v>
@@ -8238,15 +8922,15 @@
         <v>488</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>327</v>
       </c>
       <c r="B303" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="C303" t="s">
         <v>308</v>
@@ -8255,15 +8939,15 @@
         <v>488</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>330</v>
       </c>
       <c r="B304" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="C304" t="s">
         <v>308</v>
@@ -8275,7 +8959,7 @@
         <v>65.03</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>331</v>
       </c>
@@ -8292,7 +8976,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>332</v>
       </c>
@@ -8309,7 +8993,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>333</v>
       </c>
@@ -8326,12 +9010,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>323</v>
       </c>
       <c r="B308" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="C308" t="s">
         <v>308</v>
@@ -8340,15 +9024,15 @@
         <v>488</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>324</v>
       </c>
       <c r="B309" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="C309" t="s">
         <v>308</v>
@@ -8357,15 +9041,15 @@
         <v>488</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>317</v>
       </c>
       <c r="B310" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="C310" t="s">
         <v>308</v>
@@ -8374,15 +9058,15 @@
         <v>488</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>318</v>
       </c>
       <c r="B311" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="C311" t="s">
         <v>308</v>
@@ -8391,15 +9075,15 @@
         <v>488</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>319</v>
       </c>
       <c r="B312" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="C312" t="s">
         <v>308</v>
@@ -8408,15 +9092,15 @@
         <v>488</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>353</v>
       </c>
       <c r="B313" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="C313" t="s">
         <v>308</v>
@@ -8425,15 +9109,15 @@
         <v>488</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>322</v>
       </c>
       <c r="B314" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="C314" t="s">
         <v>308</v>
@@ -8442,15 +9126,15 @@
         <v>488</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>336</v>
       </c>
       <c r="B315" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="C315" t="s">
         <v>308</v>
@@ -8459,15 +9143,15 @@
         <v>488</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>325</v>
       </c>
       <c r="B316" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="C316" t="s">
         <v>308</v>
@@ -8476,15 +9160,15 @@
         <v>488</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="C317" t="s">
         <v>308</v>
@@ -8493,15 +9177,15 @@
         <v>488</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>320</v>
       </c>
       <c r="B318" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="C318" t="s">
         <v>308</v>
@@ -8510,15 +9194,15 @@
         <v>488</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>316</v>
       </c>
       <c r="B319" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="C319" t="s">
         <v>308</v>
@@ -8527,15 +9211,15 @@
         <v>488</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>321</v>
       </c>
       <c r="B320" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="C320" t="s">
         <v>308</v>
@@ -8544,29 +9228,32 @@
         <v>488</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B321" t="s">
-        <v>340</v>
+        <v>950</v>
       </c>
       <c r="C321" t="s">
         <v>308</v>
       </c>
       <c r="D321" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+      <c r="E321" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="B322" t="s">
-        <v>758</v>
+        <v>786</v>
       </c>
       <c r="C322" t="s">
         <v>308</v>
@@ -8574,27 +9261,33 @@
       <c r="D322" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E322" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>307</v>
+        <v>358</v>
       </c>
       <c r="B323" t="s">
-        <v>793</v>
+        <v>373</v>
       </c>
       <c r="C323" t="s">
-        <v>308</v>
+        <v>359</v>
       </c>
       <c r="D323" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+      <c r="E323" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>343</v>
       </c>
       <c r="B324" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="C324" t="s">
         <v>308</v>
@@ -8606,12 +9299,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>344</v>
       </c>
       <c r="B325" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="C325" t="s">
         <v>308</v>
@@ -8623,12 +9316,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>342</v>
       </c>
       <c r="B326" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="C326" t="s">
         <v>308</v>
@@ -8637,15 +9330,15 @@
         <v>488</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>354</v>
       </c>
       <c r="B327" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="C327" t="s">
         <v>308</v>
@@ -8657,7 +9350,7 @@
         <v>79.02</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>346</v>
       </c>
@@ -8674,12 +9367,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>350</v>
       </c>
       <c r="B329" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="C329" t="s">
         <v>308</v>
@@ -8688,15 +9381,15 @@
         <v>488</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>347</v>
       </c>
       <c r="B330" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="C330" t="s">
         <v>308</v>
@@ -8705,15 +9398,15 @@
         <v>488</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>348</v>
       </c>
       <c r="B331" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="C331" t="s">
         <v>308</v>
@@ -8722,15 +9415,15 @@
         <v>488</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>349</v>
       </c>
       <c r="B332" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="C332" t="s">
         <v>308</v>
@@ -8739,15 +9432,15 @@
         <v>488</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>355</v>
       </c>
       <c r="B333" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="C333" t="s">
         <v>308</v>
@@ -8756,15 +9449,15 @@
         <v>488</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>338</v>
       </c>
       <c r="B334" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="C334" t="s">
         <v>308</v>
@@ -8773,15 +9466,15 @@
         <v>488</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>351</v>
       </c>
       <c r="B335" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="C335" t="s">
         <v>308</v>
@@ -8790,15 +9483,15 @@
         <v>488</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>337</v>
       </c>
       <c r="B336" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="C336" t="s">
         <v>308</v>
@@ -8807,15 +9500,15 @@
         <v>488</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>352</v>
       </c>
       <c r="B337" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="C337" t="s">
         <v>308</v>
@@ -8827,43 +9520,43 @@
         <v>63.02</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>356</v>
+        <v>431</v>
       </c>
       <c r="B338" t="s">
-        <v>496</v>
+        <v>431</v>
       </c>
       <c r="C338" t="s">
         <v>430</v>
       </c>
       <c r="D338" t="s">
-        <v>488</v>
-      </c>
-      <c r="E338" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E338" s="2">
+        <v>31.02</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>357</v>
+        <v>432</v>
       </c>
       <c r="B339" t="s">
-        <v>357</v>
+        <v>927</v>
       </c>
       <c r="C339" t="s">
         <v>430</v>
       </c>
       <c r="D339" t="s">
-        <v>9</v>
-      </c>
-      <c r="E339" s="2">
-        <v>40.01</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B340" t="s">
         <v>373</v>
@@ -8874,10 +9567,13 @@
       <c r="D340" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E340" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="B341" t="s">
         <v>373</v>
@@ -8888,27 +9584,33 @@
       <c r="D341" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E341" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B342" t="s">
-        <v>373</v>
+        <v>956</v>
       </c>
       <c r="C342" t="s">
         <v>359</v>
       </c>
       <c r="D342" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+      <c r="E342" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>361</v>
       </c>
       <c r="B343" t="s">
-        <v>647</v>
+        <v>952</v>
       </c>
       <c r="C343" t="s">
         <v>359</v>
@@ -8916,13 +9618,16 @@
       <c r="D343" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E343" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B344" t="s">
-        <v>648</v>
+        <v>952</v>
       </c>
       <c r="C344" t="s">
         <v>359</v>
@@ -8930,13 +9635,16 @@
       <c r="D344" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E344" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B345" t="s">
-        <v>647</v>
+        <v>952</v>
       </c>
       <c r="C345" t="s">
         <v>359</v>
@@ -8944,13 +9652,16 @@
       <c r="D345" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E345" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B346" t="s">
-        <v>647</v>
+        <v>954</v>
       </c>
       <c r="C346" t="s">
         <v>359</v>
@@ -8958,8 +9669,11 @@
       <c r="D346" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E346" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>366</v>
       </c>
@@ -8973,26 +9687,29 @@
         <v>96</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="B348" t="s">
-        <v>649</v>
+        <v>408</v>
       </c>
       <c r="C348" t="s">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="D348" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+      <c r="E348" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>365</v>
       </c>
       <c r="B349" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C349" t="s">
         <v>359</v>
@@ -9004,7 +9721,7 @@
         <v>102.01</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>367</v>
       </c>
@@ -9018,10 +9735,10 @@
         <v>488</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>368</v>
       </c>
@@ -9035,15 +9752,15 @@
         <v>488</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>369</v>
       </c>
       <c r="B352" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C352" t="s">
         <v>359</v>
@@ -9055,12 +9772,12 @@
         <v>99.02</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>377</v>
       </c>
       <c r="B353" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C353" t="s">
         <v>359</v>
@@ -9072,12 +9789,12 @@
         <v>103.02</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>385</v>
       </c>
       <c r="B354" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C354" t="s">
         <v>359</v>
@@ -9089,12 +9806,12 @@
         <v>103.02</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>386</v>
       </c>
       <c r="B355" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C355" t="s">
         <v>359</v>
@@ -9106,7 +9823,7 @@
         <v>103.02</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>375</v>
       </c>
@@ -9120,15 +9837,15 @@
         <v>488</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>378</v>
       </c>
       <c r="B357" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C357" t="s">
         <v>359</v>
@@ -9140,12 +9857,12 @@
         <v>103.01</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>376</v>
       </c>
       <c r="B358" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C358" t="s">
         <v>359</v>
@@ -9154,15 +9871,15 @@
         <v>488</v>
       </c>
       <c r="E358" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>388</v>
       </c>
       <c r="B359" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C359" t="s">
         <v>359</v>
@@ -9171,10 +9888,10 @@
         <v>488</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>379</v>
       </c>
@@ -9191,7 +9908,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>380</v>
       </c>
@@ -9205,12 +9922,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>387</v>
       </c>
       <c r="B362" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C362" t="s">
         <v>359</v>
@@ -9219,15 +9936,15 @@
         <v>488</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>370</v>
       </c>
       <c r="B363" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="C363" t="s">
         <v>359</v>
@@ -9236,15 +9953,15 @@
         <v>488</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>371</v>
       </c>
       <c r="B364" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="C364" t="s">
         <v>359</v>
@@ -9253,15 +9970,15 @@
         <v>488</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>372</v>
       </c>
       <c r="B365" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C365" t="s">
         <v>359</v>
@@ -9273,12 +9990,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>381</v>
       </c>
       <c r="B366" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C366" t="s">
         <v>359</v>
@@ -9287,15 +10004,15 @@
         <v>488</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>382</v>
       </c>
       <c r="B367" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="C367" t="s">
         <v>359</v>
@@ -9304,15 +10021,15 @@
         <v>488</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
         <v>383</v>
       </c>
       <c r="B368" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C368" t="s">
         <v>359</v>
@@ -9321,15 +10038,15 @@
         <v>488</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
         <v>384</v>
       </c>
       <c r="B369" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C369" t="s">
         <v>359</v>
@@ -9338,15 +10055,15 @@
         <v>488</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>389</v>
       </c>
       <c r="B370" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C370" t="s">
         <v>359</v>
@@ -9358,9 +10075,9 @@
         <v>106.02</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="B371" t="s">
         <v>408</v>
@@ -9371,13 +10088,16 @@
       <c r="D371" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E371" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>392</v>
       </c>
       <c r="B372" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C372" t="s">
         <v>391</v>
@@ -9389,12 +10109,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>393</v>
       </c>
       <c r="B373" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C373" t="s">
         <v>391</v>
@@ -9403,15 +10123,15 @@
         <v>488</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>394</v>
       </c>
       <c r="B374" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C374" t="s">
         <v>391</v>
@@ -9423,7 +10143,7 @@
         <v>34.020000000000003</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>395</v>
       </c>
@@ -9434,13 +10154,13 @@
         <v>391</v>
       </c>
       <c r="D375" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>396</v>
       </c>
@@ -9451,18 +10171,18 @@
         <v>391</v>
       </c>
       <c r="D376" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>397</v>
       </c>
       <c r="B377" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C377" t="s">
         <v>391</v>
@@ -9471,15 +10191,15 @@
         <v>488</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>398</v>
       </c>
       <c r="B378" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C378" t="s">
         <v>391</v>
@@ -9488,10 +10208,10 @@
         <v>488</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>399</v>
       </c>
@@ -9505,10 +10225,10 @@
         <v>9</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>400</v>
       </c>
@@ -9525,12 +10245,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>401</v>
       </c>
       <c r="B381" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C381" t="s">
         <v>391</v>
@@ -9539,15 +10259,15 @@
         <v>488</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>402</v>
       </c>
       <c r="B382" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C382" t="s">
         <v>391</v>
@@ -9556,10 +10276,10 @@
         <v>488</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>403</v>
       </c>
@@ -9576,7 +10296,7 @@
         <v>46.03</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>404</v>
       </c>
@@ -9593,7 +10313,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>405</v>
       </c>
@@ -9610,12 +10330,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>406</v>
       </c>
       <c r="B386" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C386" t="s">
         <v>391</v>
@@ -9624,15 +10344,15 @@
         <v>488</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>407</v>
       </c>
       <c r="B387" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C387" t="s">
         <v>391</v>
@@ -9641,29 +10361,32 @@
         <v>488</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B388" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="C388" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="D388" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E388" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
         <v>409</v>
       </c>
       <c r="B389" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C389" t="s">
         <v>391</v>
@@ -9672,12 +10395,12 @@
         <v>488</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B390" t="s">
         <v>416</v>
@@ -9688,13 +10411,16 @@
       <c r="D390" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E390" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>412</v>
       </c>
       <c r="B391" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C391" t="s">
         <v>411</v>
@@ -9706,12 +10432,12 @@
         <v>49.03</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>413</v>
       </c>
       <c r="B392" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C392" t="s">
         <v>411</v>
@@ -9723,12 +10449,12 @@
         <v>49.03</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>414</v>
       </c>
       <c r="B393" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C393" t="s">
         <v>411</v>
@@ -9740,12 +10466,12 @@
         <v>49.03</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>415</v>
       </c>
       <c r="B394" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C394" t="s">
         <v>411</v>
@@ -9757,26 +10483,29 @@
         <v>49.03</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="B395" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="C395" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="D395" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E395" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>417</v>
       </c>
       <c r="B396" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C396" t="s">
         <v>411</v>
@@ -9788,12 +10517,12 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>418</v>
       </c>
       <c r="B397" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C397" t="s">
         <v>411</v>
@@ -9802,15 +10531,15 @@
         <v>488</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>419</v>
       </c>
       <c r="B398" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C398" t="s">
         <v>411</v>
@@ -9819,10 +10548,10 @@
         <v>488</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>420</v>
       </c>
@@ -9839,7 +10568,7 @@
         <v>93.02</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>422</v>
       </c>
@@ -9856,7 +10585,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>423</v>
       </c>
@@ -9870,15 +10599,15 @@
         <v>488</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>424</v>
       </c>
       <c r="B402" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C402" t="s">
         <v>421</v>
@@ -9887,15 +10616,15 @@
         <v>488</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>425</v>
       </c>
       <c r="B403" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C403" t="s">
         <v>421</v>
@@ -9904,15 +10633,15 @@
         <v>488</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>426</v>
       </c>
       <c r="B404" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C404" t="s">
         <v>421</v>
@@ -9921,15 +10650,15 @@
         <v>488</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>427</v>
       </c>
       <c r="B405" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C405" t="s">
         <v>421</v>
@@ -9938,60 +10667,63 @@
         <v>488</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>428</v>
+        <v>75</v>
       </c>
       <c r="B406" t="s">
-        <v>428</v>
+        <v>75</v>
       </c>
       <c r="C406" t="s">
-        <v>421</v>
+        <v>67</v>
       </c>
       <c r="D406" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="B407" t="s">
-        <v>477</v>
+        <v>508</v>
       </c>
       <c r="C407" t="s">
         <v>430</v>
       </c>
       <c r="D407" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+      <c r="E407" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B408" t="s">
-        <v>431</v>
+        <v>492</v>
       </c>
       <c r="C408" t="s">
         <v>430</v>
       </c>
       <c r="D408" t="s">
+        <v>488</v>
+      </c>
+      <c r="E408" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="E408" s="2">
-        <v>31.02</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B409" t="s">
-        <v>431</v>
+        <v>492</v>
       </c>
       <c r="C409" t="s">
         <v>430</v>
@@ -10000,86 +10732,100 @@
         <v>488</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B410" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C410" t="s">
         <v>430</v>
       </c>
-      <c r="D410"/>
-    </row>
-    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D410" t="s">
+        <v>9</v>
+      </c>
+      <c r="E410" s="2">
+        <v>31.02</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B411" t="s">
-        <v>492</v>
+        <v>437</v>
       </c>
       <c r="C411" t="s">
         <v>430</v>
       </c>
-      <c r="D411"/>
-      <c r="E411" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D411" t="s">
+        <v>9</v>
+      </c>
+      <c r="E411" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B412" t="s">
-        <v>495</v>
+        <v>438</v>
       </c>
       <c r="C412" t="s">
         <v>430</v>
       </c>
-      <c r="D412"/>
-    </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D412" t="s">
+        <v>488</v>
+      </c>
+      <c r="E412" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B413" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="C413" t="s">
         <v>430</v>
       </c>
-      <c r="D413"/>
+      <c r="D413" t="s">
+        <v>488</v>
+      </c>
       <c r="E413" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B414" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="C414" t="s">
         <v>430</v>
       </c>
       <c r="D414" t="s">
-        <v>9</v>
-      </c>
-      <c r="E414" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+      <c r="E414" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B415" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="C415" t="s">
         <v>430</v>
@@ -10088,15 +10834,15 @@
         <v>488</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>439</v>
+        <v>356</v>
       </c>
       <c r="B416" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C416" t="s">
         <v>430</v>
@@ -10105,15 +10851,15 @@
         <v>488</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B417" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C417" t="s">
         <v>430</v>
@@ -10122,15 +10868,15 @@
         <v>488</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B418" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C418" t="s">
         <v>430</v>
@@ -10139,15 +10885,15 @@
         <v>488</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B419" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C419" t="s">
         <v>430</v>
@@ -10156,15 +10902,15 @@
         <v>488</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B420" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C420" t="s">
         <v>430</v>
@@ -10176,12 +10922,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B421" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C421" t="s">
         <v>430</v>
@@ -10190,15 +10936,15 @@
         <v>488</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B422" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C422" t="s">
         <v>430</v>
@@ -10207,15 +10953,15 @@
         <v>488</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B423" t="s">
-        <v>497</v>
+        <v>448</v>
       </c>
       <c r="C423" t="s">
         <v>430</v>
@@ -10224,15 +10970,15 @@
         <v>488</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B424" t="s">
-        <v>498</v>
+        <v>448</v>
       </c>
       <c r="C424" t="s">
         <v>430</v>
@@ -10241,243 +10987,301 @@
         <v>488</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B425" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C425" t="s">
         <v>430</v>
       </c>
       <c r="D425" t="s">
-        <v>488</v>
-      </c>
-      <c r="E425" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E425" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B426" t="s">
-        <v>499</v>
+        <v>451</v>
       </c>
       <c r="C426" t="s">
         <v>430</v>
       </c>
-      <c r="D426"/>
-    </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D426" t="s">
+        <v>505</v>
+      </c>
+      <c r="E426" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B427" t="s">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="C427" t="s">
         <v>430</v>
       </c>
       <c r="D427" t="s">
-        <v>9</v>
-      </c>
-      <c r="E427" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+      <c r="E427" s="2" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="B428" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="C428" t="s">
         <v>430</v>
       </c>
       <c r="D428" t="s">
-        <v>507</v>
-      </c>
-      <c r="E428" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E428" s="2">
+        <v>45.01</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="B429" t="s">
-        <v>487</v>
+        <v>357</v>
       </c>
       <c r="C429" t="s">
         <v>430</v>
       </c>
       <c r="D429" t="s">
-        <v>507</v>
-      </c>
-      <c r="E429" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E429" s="2">
+        <v>40.01</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>453</v>
+        <v>459</v>
+      </c>
+      <c r="B430" t="s">
+        <v>484</v>
       </c>
       <c r="C430" t="s">
         <v>430</v>
       </c>
-      <c r="D430"/>
-    </row>
-    <row r="431" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A431" s="1" t="s">
-        <v>454</v>
+      <c r="D430" t="s">
+        <v>488</v>
+      </c>
+      <c r="E430" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>460</v>
+      </c>
+      <c r="B431" t="s">
+        <v>484</v>
       </c>
       <c r="C431" t="s">
         <v>430</v>
       </c>
-      <c r="D431"/>
-    </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D431" t="s">
+        <v>488</v>
+      </c>
+      <c r="E431" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>455</v>
+        <v>461</v>
+      </c>
+      <c r="B432" t="s">
+        <v>484</v>
       </c>
       <c r="C432" t="s">
         <v>430</v>
       </c>
-      <c r="D432"/>
-    </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D432" t="s">
+        <v>488</v>
+      </c>
+      <c r="E432" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>456</v>
+        <v>464</v>
+      </c>
+      <c r="B433" t="s">
+        <v>485</v>
       </c>
       <c r="C433" t="s">
         <v>430</v>
       </c>
-      <c r="D433"/>
-    </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D433" t="s">
+        <v>488</v>
+      </c>
+      <c r="E433" s="2" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>457</v>
+        <v>462</v>
+      </c>
+      <c r="B434" t="s">
+        <v>462</v>
       </c>
       <c r="C434" t="s">
         <v>430</v>
       </c>
-      <c r="D434"/>
-    </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D434" t="s">
+        <v>9</v>
+      </c>
+      <c r="E434" s="2">
+        <v>31.01</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B435" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C435" t="s">
         <v>430</v>
       </c>
       <c r="D435" t="s">
-        <v>9</v>
-      </c>
-      <c r="E435" s="2">
-        <v>45.01</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+      <c r="E435" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B436" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C436" t="s">
         <v>430</v>
       </c>
-      <c r="D436"/>
+      <c r="D436" t="s">
+        <v>488</v>
+      </c>
       <c r="E436" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B437" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C437" t="s">
         <v>430</v>
       </c>
-      <c r="D437"/>
+      <c r="D437" t="s">
+        <v>488</v>
+      </c>
       <c r="E437" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B438" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C438" t="s">
         <v>430</v>
       </c>
-      <c r="D438"/>
+      <c r="D438" t="s">
+        <v>488</v>
+      </c>
       <c r="E438" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B439" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="C439" t="s">
         <v>430</v>
       </c>
       <c r="D439" t="s">
-        <v>9</v>
-      </c>
-      <c r="E439" s="2">
-        <v>31.01</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+      <c r="E439" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B440" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="C440" t="s">
         <v>430</v>
       </c>
-      <c r="D440"/>
+      <c r="D440" t="s">
+        <v>488</v>
+      </c>
       <c r="E440" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B441" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C441" t="s">
         <v>430</v>
       </c>
-      <c r="D441"/>
-    </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D441" t="s">
+        <v>488</v>
+      </c>
+      <c r="E441" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="B442" t="s">
         <v>480</v>
@@ -10492,12 +11296,12 @@
         <v>489</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B443" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C443" t="s">
         <v>430</v>
@@ -10506,15 +11310,15 @@
         <v>488</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B444" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C444" t="s">
         <v>430</v>
@@ -10523,15 +11327,15 @@
         <v>488</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B445" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C445" t="s">
         <v>430</v>
@@ -10540,15 +11344,15 @@
         <v>488</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="B446" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C446" t="s">
         <v>430</v>
@@ -10557,107 +11361,117 @@
         <v>488</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B447" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C447" t="s">
         <v>430</v>
       </c>
       <c r="D447" t="s">
-        <v>488</v>
-      </c>
-      <c r="E447" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>921</v>
+      </c>
+      <c r="E447" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="B448" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C448" t="s">
         <v>430</v>
       </c>
       <c r="D448" t="s">
-        <v>488</v>
-      </c>
-      <c r="E448" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+      <c r="E448" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B449" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C449" t="s">
         <v>430</v>
       </c>
       <c r="D449" t="s">
-        <v>488</v>
-      </c>
-      <c r="E449" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+      <c r="E449" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B450" t="s">
-        <v>481</v>
+        <v>960</v>
       </c>
       <c r="C450" t="s">
         <v>430</v>
       </c>
       <c r="D450" t="s">
-        <v>488</v>
-      </c>
-      <c r="E450" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+      <c r="E450" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B451" t="s">
-        <v>486</v>
+        <v>958</v>
       </c>
       <c r="C451" t="s">
         <v>430</v>
       </c>
-      <c r="D451"/>
-    </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D451" t="s">
+        <v>483</v>
+      </c>
+      <c r="E451" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="B452" t="s">
-        <v>480</v>
+        <v>932</v>
       </c>
       <c r="C452" t="s">
         <v>430</v>
       </c>
-      <c r="D452"/>
-    </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A453" t="s">
-        <v>476</v>
+      <c r="D452" t="s">
+        <v>488</v>
+      </c>
+      <c r="E452" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A453" s="1" t="s">
+        <v>454</v>
       </c>
       <c r="B453" t="s">
-        <v>481</v>
+        <v>934</v>
       </c>
       <c r="C453" t="s">
         <v>430</v>
@@ -10666,62 +11480,59 @@
         <v>488</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="B454" t="s">
-        <v>477</v>
+        <v>934</v>
       </c>
       <c r="C454" t="s">
         <v>430</v>
       </c>
       <c r="D454" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+      <c r="E454" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="B455" t="s">
-        <v>478</v>
+        <v>936</v>
       </c>
       <c r="C455" t="s">
         <v>430</v>
       </c>
       <c r="D455" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+      <c r="E455" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>479</v>
-      </c>
-      <c r="B456" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="C456" t="s">
         <v>430</v>
       </c>
       <c r="D456" t="s">
-        <v>483</v>
+        <v>488</v>
+      </c>
+      <c r="E456" s="2" t="s">
+        <v>931</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E456" xr:uid="{6F6B4226-AD8C-F54C-A28C-8E933E2E21E3}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Kitsap"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A178:E276">
-      <sortCondition ref="B1:B456"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:E456" xr:uid="{6F6B4226-AD8C-F54C-A28C-8E933E2E21E3}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -10744,16 +11555,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C1" t="s">
         <v>534</v>
       </c>
-      <c r="C1" t="s">
-        <v>537</v>
-      </c>
       <c r="D1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -10761,13 +11572,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -10775,13 +11586,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -10789,13 +11600,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C4" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D4" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -10803,13 +11614,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C5" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D5" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -10817,13 +11628,13 @@
         <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -10831,7 +11642,7 @@
         <v>421</v>
       </c>
       <c r="B7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
